--- a/TemplateCorrection_AX_Java_h1.xlsx
+++ b/TemplateCorrection_AX_Java_h1.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JJ22-1\Downloads\ll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Binus\AXForAutoPets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BAE980-2FBE-4A4A-9D7E-0DD4BAE24EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FF090B-6D26-43B6-8046-DF866529BEED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BDAB9093-038C-475C-B0C6-709F9936B761}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="3" xr2:uid="{BDAB9093-038C-475C-B0C6-709F9936B761}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
+    <sheet name="MenuAuth" sheetId="3" r:id="rId2"/>
+    <sheet name="MenuMain" sheetId="5" r:id="rId3"/>
+    <sheet name="Arena" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -291,8 +294,170 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={19D0EC0D-0121-457D-83D1-40550A4F0B2A}</author>
+    <author>tc={9777BC40-1346-4802-A2B7-7479E879BAD4}</author>
+    <author>tc={FB9A296B-B3BE-469B-A230-C30BF332C0E1}</author>
+    <author>tc={B969F3B9-2E04-4D89-926E-0EE161BC8007}</author>
+    <author>tc={8C7D4387-FAC9-402E-A882-68ACAD897BEB}</author>
+    <author>tc={73A28664-FCB0-4B30-B2A1-9F3E0359C90C}</author>
+    <author>tc={FB7ABCA3-9932-4440-AB52-F7515BE0BFE8}</author>
+  </authors>
+  <commentList>
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{19D0EC0D-0121-457D-83D1-40550A4F0B2A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Validate input username and password in range 5-20.</t>
+      </text>
+    </comment>
+    <comment ref="D10" authorId="1" shapeId="0" xr:uid="{9777BC40-1346-4802-A2B7-7479E879BAD4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Match username + password to a user from database.</t>
+      </text>
+    </comment>
+    <comment ref="E10" authorId="2" shapeId="0" xr:uid="{FB9A296B-B3BE-469B-A230-C30BF332C0E1}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Save the currently logged in user in the application so that it can be used to get other table later on.</t>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="3" shapeId="0" xr:uid="{B969F3B9-2E04-4D89-926E-0EE161BC8007}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Validate input username and password in range 5-20.</t>
+      </text>
+    </comment>
+    <comment ref="G10" authorId="4" shapeId="0" xr:uid="{8C7D4387-FAC9-402E-A882-68ACAD897BEB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Validate that the inputted username is unique (username unique in db).</t>
+      </text>
+    </comment>
+    <comment ref="H10" authorId="5" shapeId="0" xr:uid="{73A28664-FCB0-4B30-B2A1-9F3E0359C90C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Successfully insert new user to database.</t>
+      </text>
+    </comment>
+    <comment ref="I10" authorId="6" shapeId="0" xr:uid="{FB7ABCA3-9932-4440-AB52-F7515BE0BFE8}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Remove currently logged in user from the application.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={ED44B6E5-6AD7-4E47-819C-FDFB08B7E338}</author>
+    <author>tc={37CD2B27-4C66-4A61-B9C9-ED6722911992}</author>
+    <author>tc={C24DC6D2-A49D-4D1F-A4B0-96DFEE4A6CDD}</author>
+    <author>tc={EB5EE511-3EA2-4EAB-8573-D4B26BC57D4E}</author>
+    <author>tc={422622E8-A810-4233-B21C-7922BD697975}</author>
+    <author>tc={CE524EDE-EF5C-4D6D-A48A-08B8AAD712EB}</author>
+    <author>tc={DD7F2454-0B2E-4891-8D4F-8247990F4C94}</author>
+  </authors>
+  <commentList>
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{ED44B6E5-6AD7-4E47-819C-FDFB08B7E338}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Query wins for each player by summing up the wins from each match by said player.</t>
+      </text>
+    </comment>
+    <comment ref="D9" authorId="1" shapeId="0" xr:uid="{37CD2B27-4C66-4A61-B9C9-ED6722911992}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Display top 10 player with most wins sorted from highest to lowest.</t>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="2" shapeId="0" xr:uid="{C24DC6D2-A49D-4D1F-A4B0-96DFEE4A6CDD}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Validate able to go back using -1 and able to advance by inputting the number. Atleast 1 for full score</t>
+      </text>
+    </comment>
+    <comment ref="F9" authorId="3" shapeId="0" xr:uid="{EB5EE511-3EA2-4EAB-8573-D4B26BC57D4E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Display all of the player's match alongside the match's win.</t>
+      </text>
+    </comment>
+    <comment ref="G9" authorId="4" shapeId="0" xr:uid="{422622E8-A810-4233-B21C-7922BD697975}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Get and display every round of the selected match.</t>
+      </text>
+    </comment>
+    <comment ref="H9" authorId="5" shapeId="0" xr:uid="{CE524EDE-EF5C-4D6D-A48A-08B8AAD712EB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Round must display the player's team and the enemy's team.</t>
+      </text>
+    </comment>
+    <comment ref="I9" authorId="6" shapeId="0" xr:uid="{DD7F2454-0B2E-4891-8D4F-8247990F4C94}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Able to simulate the battle correctly, also check that the battle conclusion is correct.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={E1321297-18B0-4D88-A1A2-3884BC29D7A6}</author>
+  </authors>
+  <commentList>
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{E1321297-18B0-4D88-A1A2-3884BC29D7A6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Create new match and save it to database.</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>NIM</t>
   </si>
@@ -538,6 +703,57 @@
   </si>
   <si>
     <t>Solving Method</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Validation</t>
+  </si>
+  <si>
+    <t>Read</t>
+  </si>
+  <si>
+    <t>Session</t>
+  </si>
+  <si>
+    <t>Constraint</t>
+  </si>
+  <si>
+    <t>Insert</t>
+  </si>
+  <si>
+    <t>Exit</t>
+  </si>
+  <si>
+    <t>Menu Auth</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Leaderboard</t>
+  </si>
+  <si>
+    <t>Match</t>
+  </si>
+  <si>
+    <t>Match Detail</t>
+  </si>
+  <si>
+    <t>Round Detail</t>
+  </si>
+  <si>
+    <t>Replay</t>
+  </si>
+  <si>
+    <t>Match History</t>
+  </si>
+  <si>
+    <t>Create Match</t>
   </si>
 </sst>
 </file>
@@ -837,7 +1053,7 @@
     <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -919,6 +1135,15 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -973,14 +1198,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1003,19 +1222,19 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF8E7B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF8E7B"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1035,15 +1254,16 @@
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="STEPHANUS ADITYA PRATAMA HARJONO" id="{2F9DB55C-AFE2-40F5-9CAA-AE2F78D193AB}" userId="STEPHANUS ADITYA PRATAMA HARJONO" providerId="None"/>
+  <person displayName="Arya" id="{72C7B3A6-3BEC-45B8-970E-EB40E2544AEC}" userId="S::arya@binus.edu::76b8855e-2a9e-4f73-b369-fbd71cc5da1f" providerId="AD"/>
   <person displayName="Renaldy" id="{15D7A3E1-A4C6-4278-A43F-76C70BA023B6}" userId="S::renaldy@binus.edu::a59edd47-9002-4fa5-97b4-f749a3d3e792" providerId="AD"/>
   <person displayName="Joshua Wijaya Surja" id="{C88CC3A2-F0EA-4CEC-BB15-A6B34ADF4C5B}" userId="S::joshua.surja@binus.edu::b59ad322-5fe2-4894-bb24-ce129547ca20" providerId="AD"/>
 </personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1081,7 +1301,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1187,7 +1407,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1329,7 +1549,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1433,118 +1653,178 @@
 </ThreadedComments>
 </file>
 
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C10" dT="2024-07-09T02:16:36.24" personId="{72C7B3A6-3BEC-45B8-970E-EB40E2544AEC}" id="{19D0EC0D-0121-457D-83D1-40550A4F0B2A}">
+    <text>Validate input username and password in range 5-20.</text>
+  </threadedComment>
+  <threadedComment ref="D10" dT="2024-07-09T02:17:30.23" personId="{72C7B3A6-3BEC-45B8-970E-EB40E2544AEC}" id="{9777BC40-1346-4802-A2B7-7479E879BAD4}">
+    <text>Match username + password to a user from database.</text>
+  </threadedComment>
+  <threadedComment ref="E10" dT="2024-07-09T02:21:57.51" personId="{72C7B3A6-3BEC-45B8-970E-EB40E2544AEC}" id="{FB9A296B-B3BE-469B-A230-C30BF332C0E1}">
+    <text>Save the currently logged in user in the application so that it can be used to get other table later on.</text>
+  </threadedComment>
+  <threadedComment ref="F10" dT="2024-07-09T02:25:37.74" personId="{72C7B3A6-3BEC-45B8-970E-EB40E2544AEC}" id="{B969F3B9-2E04-4D89-926E-0EE161BC8007}">
+    <text>Validate input username and password in range 5-20.</text>
+  </threadedComment>
+  <threadedComment ref="G10" dT="2024-07-09T02:26:39.46" personId="{72C7B3A6-3BEC-45B8-970E-EB40E2544AEC}" id="{8C7D4387-FAC9-402E-A882-68ACAD897BEB}">
+    <text>Validate that the inputted username is unique (username unique in db).</text>
+  </threadedComment>
+  <threadedComment ref="H10" dT="2024-07-09T02:29:53.39" personId="{72C7B3A6-3BEC-45B8-970E-EB40E2544AEC}" id="{73A28664-FCB0-4B30-B2A1-9F3E0359C90C}">
+    <text>Successfully insert new user to database.</text>
+  </threadedComment>
+  <threadedComment ref="I10" dT="2024-07-09T02:30:24.13" personId="{72C7B3A6-3BEC-45B8-970E-EB40E2544AEC}" id="{FB7ABCA3-9932-4440-AB52-F7515BE0BFE8}">
+    <text>Remove currently logged in user from the application.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment3.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C9" dT="2024-07-09T03:06:45.98" personId="{72C7B3A6-3BEC-45B8-970E-EB40E2544AEC}" id="{ED44B6E5-6AD7-4E47-819C-FDFB08B7E338}">
+    <text>Query wins for each player by summing up the wins from each match by said player.</text>
+  </threadedComment>
+  <threadedComment ref="D9" dT="2024-07-09T03:07:35.18" personId="{72C7B3A6-3BEC-45B8-970E-EB40E2544AEC}" id="{37CD2B27-4C66-4A61-B9C9-ED6722911992}">
+    <text>Display top 10 player with most wins sorted from highest to lowest.</text>
+  </threadedComment>
+  <threadedComment ref="E9" dT="2024-07-09T03:20:54.20" personId="{72C7B3A6-3BEC-45B8-970E-EB40E2544AEC}" id="{C24DC6D2-A49D-4D1F-A4B0-96DFEE4A6CDD}">
+    <text>Validate able to go back using -1 and able to advance by inputting the number. Atleast 1 for full score</text>
+  </threadedComment>
+  <threadedComment ref="F9" dT="2024-07-09T03:15:49.90" personId="{72C7B3A6-3BEC-45B8-970E-EB40E2544AEC}" id="{EB5EE511-3EA2-4EAB-8573-D4B26BC57D4E}">
+    <text>Display all of the player's match alongside the match's win.</text>
+  </threadedComment>
+  <threadedComment ref="G9" dT="2024-07-09T03:25:03.10" personId="{72C7B3A6-3BEC-45B8-970E-EB40E2544AEC}" id="{422622E8-A810-4233-B21C-7922BD697975}">
+    <text>Get and display every round of the selected match.</text>
+  </threadedComment>
+  <threadedComment ref="H9" dT="2024-07-09T03:24:02.81" personId="{72C7B3A6-3BEC-45B8-970E-EB40E2544AEC}" id="{CE524EDE-EF5C-4D6D-A48A-08B8AAD712EB}">
+    <text>Round must display the player's team and the enemy's team.</text>
+  </threadedComment>
+  <threadedComment ref="I9" dT="2024-07-09T03:24:56.59" personId="{72C7B3A6-3BEC-45B8-970E-EB40E2544AEC}" id="{DD7F2454-0B2E-4891-8D4F-8247990F4C94}">
+    <text>Able to simulate the battle correctly, also check that the battle conclusion is correct.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment4.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="C9" dT="2024-07-09T05:45:44.10" personId="{72C7B3A6-3BEC-45B8-970E-EB40E2544AEC}" id="{E1321297-18B0-4D88-A1A2-3884BC29D7A6}">
+    <text>Create new match and save it to database.</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213A1999-AB48-4C38-A006-78EF3B70ECAF}">
   <dimension ref="A2:AK100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC25" sqref="AC25"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" style="7" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="3.7265625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="4.7265625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="35.7265625" style="7" customWidth="1"/>
+    <col min="5" max="6" width="10.7265625" style="7" customWidth="1"/>
     <col min="7" max="7" width="12" style="7" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="7" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" style="7" customWidth="1"/>
-    <col min="11" max="11" width="32.5703125" style="7" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" style="7" customWidth="1"/>
-    <col min="13" max="13" width="25.85546875" style="7" customWidth="1"/>
-    <col min="14" max="14" width="23.28515625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" style="7" customWidth="1"/>
+    <col min="9" max="9" width="15.1796875" style="7" customWidth="1"/>
+    <col min="10" max="10" width="19.7265625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="32.54296875" style="7" customWidth="1"/>
+    <col min="12" max="12" width="20.54296875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="25.81640625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="23.26953125" style="7" customWidth="1"/>
     <col min="15" max="15" width="16" style="7" customWidth="1"/>
-    <col min="16" max="16" width="14.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.42578125" style="1" customWidth="1"/>
-    <col min="18" max="18" width="24.140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="33.28515625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="21.28515625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.1796875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15.453125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="24.1796875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="33.26953125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="21.26953125" style="1" customWidth="1"/>
     <col min="21" max="26" width="26" style="1" customWidth="1"/>
-    <col min="27" max="27" width="26.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="31" width="21.28515625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="10.7109375" style="2" customWidth="1"/>
-    <col min="33" max="33" width="5.7109375" style="1" customWidth="1"/>
-    <col min="34" max="34" width="5.28515625" style="1" customWidth="1"/>
-    <col min="35" max="36" width="5.42578125" style="1" customWidth="1"/>
-    <col min="37" max="37" width="6.85546875" style="1" customWidth="1"/>
-    <col min="39" max="39" width="5.85546875" customWidth="1"/>
-    <col min="40" max="40" width="4.28515625" customWidth="1"/>
+    <col min="27" max="27" width="26.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="31" width="21.26953125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="10.7265625" style="2" customWidth="1"/>
+    <col min="33" max="33" width="5.7265625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="5.26953125" style="1" customWidth="1"/>
+    <col min="35" max="36" width="5.453125" style="1" customWidth="1"/>
+    <col min="37" max="37" width="6.81640625" style="1" customWidth="1"/>
+    <col min="39" max="39" width="5.81640625" customWidth="1"/>
+    <col min="40" max="40" width="4.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:37" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="30" t="s">
+    <row r="2" spans="2:37" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="30"/>
-      <c r="X2" s="30"/>
-      <c r="Y2" s="30"/>
-      <c r="Z2" s="30"/>
-      <c r="AA2" s="30"/>
-      <c r="AB2" s="30"/>
-      <c r="AC2" s="30"/>
-      <c r="AD2" s="30"/>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-    </row>
-    <row r="3" spans="2:37" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="29" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+    </row>
+    <row r="3" spans="2:37" s="7" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29"/>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="29"/>
-    </row>
-    <row r="4" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+    </row>
+    <row r="4" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -1560,11 +1840,11 @@
       <c r="N4" s="9"/>
       <c r="O4" s="9"/>
     </row>
-    <row r="5" spans="2:37" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+    <row r="5" spans="2:37" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B5" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="31"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="8" t="s">
         <v>5</v>
       </c>
@@ -1582,11 +1862,11 @@
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
     </row>
-    <row r="6" spans="2:37" s="7" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="31" t="s">
+    <row r="6" spans="2:37" s="7" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="31"/>
+      <c r="C6" s="34"/>
       <c r="D6" s="8" t="s">
         <v>7</v>
       </c>
@@ -1604,7 +1884,7 @@
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
     </row>
-    <row r="7" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
@@ -1638,7 +1918,7 @@
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
     </row>
-    <row r="8" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -1672,58 +1952,58 @@
       <c r="AI8" s="3"/>
       <c r="AJ8" s="3"/>
     </row>
-    <row r="9" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="35" t="s">
+    <row r="9" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D9" s="35" t="s">
+      <c r="C9" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="35" t="s">
+      <c r="E9" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="35" t="s">
+      <c r="F9" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="46" t="s">
+      <c r="H9" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="46"/>
-      <c r="L9" s="46"/>
-      <c r="M9" s="46"/>
-      <c r="N9" s="46"/>
-      <c r="O9" s="46"/>
-      <c r="P9" s="38" t="s">
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="Q9" s="39"/>
-      <c r="R9" s="39"/>
-      <c r="S9" s="39"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="41" t="s">
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="V9" s="42"/>
-      <c r="W9" s="42"/>
-      <c r="X9" s="42"/>
-      <c r="Y9" s="42"/>
-      <c r="Z9" s="42"/>
-      <c r="AA9" s="43"/>
-      <c r="AB9" s="44" t="s">
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+      <c r="X9" s="45"/>
+      <c r="Y9" s="45"/>
+      <c r="Z9" s="45"/>
+      <c r="AA9" s="46"/>
+      <c r="AB9" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="AC9" s="45"/>
-      <c r="AD9" s="45"/>
-      <c r="AE9" s="45"/>
-      <c r="AF9" s="32" t="s">
+      <c r="AC9" s="48"/>
+      <c r="AD9" s="48"/>
+      <c r="AE9" s="48"/>
+      <c r="AF9" s="35" t="s">
         <v>2</v>
       </c>
       <c r="AG9" s="3"/>
@@ -1731,13 +2011,13 @@
       <c r="AI9" s="3"/>
       <c r="AJ9" s="3"/>
     </row>
-    <row r="10" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="37"/>
+    <row r="10" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="40"/>
       <c r="H10" s="15" t="s">
         <v>30</v>
       </c>
@@ -1810,18 +2090,18 @@
       <c r="AE10" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="AF10" s="33"/>
+      <c r="AF10" s="36"/>
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
       <c r="AJ10" s="3"/>
     </row>
-    <row r="11" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
+    <row r="11" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
       <c r="G11" s="19">
         <v>5</v>
       </c>
@@ -1897,13 +2177,13 @@
       <c r="AE11" s="28">
         <v>15</v>
       </c>
-      <c r="AF11" s="34"/>
+      <c r="AF11" s="37"/>
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
       <c r="AI11" s="3"/>
       <c r="AJ11" s="3"/>
     </row>
-    <row r="12" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B12" s="10">
         <v>0</v>
       </c>
@@ -1914,11 +2194,11 @@
         <v>10</v>
       </c>
       <c r="E12" s="10">
-        <f>IF(AF12="",ROUNDUP(SUMPRODUCT(G12:AE12, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" ref="E12:E43" si="0">IF(AF12="",ROUNDUP(SUMPRODUCT(G12:AE12, $G$11:$AE$11)/2,0),0)</f>
         <v>100</v>
       </c>
       <c r="F12" s="10" t="str">
-        <f t="shared" ref="F12:F75" si="0">IF(E12&gt;=90,"A",IF(E12&gt;=85,"A-",IF(E12&gt;=80,"B+",IF(E12&gt;=75,"B",IF(E12&gt;=70,"B-",IF(E12&gt;=65,"C",IF(E12&gt;=50,"D","E")))))))</f>
+        <f t="shared" ref="F12:F75" si="1">IF(E12&gt;=90,"A",IF(E12&gt;=85,"A-",IF(E12&gt;=80,"B+",IF(E12&gt;=75,"B",IF(E12&gt;=70,"B-",IF(E12&gt;=65,"C",IF(E12&gt;=50,"D","E")))))))</f>
         <v>A</v>
       </c>
       <c r="G12" s="18">
@@ -1998,18 +2278,18 @@
       </c>
       <c r="AF12" s="10"/>
     </row>
-    <row r="13" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="10">
         <v>1</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10">
-        <f>IF(AF13="",ROUNDUP(SUMPRODUCT(G13:AE13, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="F13" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>A</v>
       </c>
       <c r="G13" s="18">
@@ -2094,18 +2374,18 @@
       <c r="AJ13" s="5"/>
       <c r="AK13" s="5"/>
     </row>
-    <row r="14" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="10">
         <v>2</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10">
-        <f>IF(AF14="",ROUNDUP(SUMPRODUCT(G14:AE14, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F14" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G14" s="18"/>
@@ -2140,18 +2420,18 @@
       <c r="AJ14"/>
       <c r="AK14"/>
     </row>
-    <row r="15" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="10">
         <v>3</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10">
-        <f>IF(AF15="",ROUNDUP(SUMPRODUCT(G15:AE15, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F15" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G15" s="18"/>
@@ -2186,18 +2466,18 @@
       <c r="AJ15"/>
       <c r="AK15"/>
     </row>
-    <row r="16" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="10">
         <v>4</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10">
-        <f>IF(AF16="",ROUNDUP(SUMPRODUCT(G16:AE16, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F16" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G16" s="18"/>
@@ -2232,18 +2512,18 @@
       <c r="AJ16"/>
       <c r="AK16"/>
     </row>
-    <row r="17" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="10">
         <v>5</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10">
-        <f>IF(AF17="",ROUNDUP(SUMPRODUCT(G17:AE17, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F17" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G17" s="18"/>
@@ -2278,18 +2558,18 @@
       <c r="AJ17"/>
       <c r="AK17"/>
     </row>
-    <row r="18" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="10">
         <v>6</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10">
-        <f>IF(AF18="",ROUNDUP(SUMPRODUCT(G18:AE18, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F18" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G18" s="18"/>
@@ -2324,18 +2604,18 @@
       <c r="AJ18"/>
       <c r="AK18"/>
     </row>
-    <row r="19" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="10">
         <v>7</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10">
-        <f>IF(AF19="",ROUNDUP(SUMPRODUCT(G19:AE19, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F19" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G19" s="18"/>
@@ -2370,18 +2650,18 @@
       <c r="AJ19"/>
       <c r="AK19"/>
     </row>
-    <row r="20" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="10">
         <v>8</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10">
-        <f>IF(AF20="",ROUNDUP(SUMPRODUCT(G20:AE20, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F20" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G20" s="18"/>
@@ -2416,18 +2696,18 @@
       <c r="AJ20"/>
       <c r="AK20"/>
     </row>
-    <row r="21" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="10">
         <v>9</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10">
-        <f>IF(AF21="",ROUNDUP(SUMPRODUCT(G21:AE21, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F21" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G21" s="18"/>
@@ -2462,18 +2742,18 @@
       <c r="AJ21"/>
       <c r="AK21"/>
     </row>
-    <row r="22" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="10">
         <v>10</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10">
-        <f>IF(AF22="",ROUNDUP(SUMPRODUCT(G22:AE22, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F22" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G22" s="18"/>
@@ -2508,18 +2788,18 @@
       <c r="AJ22"/>
       <c r="AK22"/>
     </row>
-    <row r="23" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="10">
         <v>11</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10">
-        <f>IF(AF23="",ROUNDUP(SUMPRODUCT(G23:AE23, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F23" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G23" s="18"/>
@@ -2554,18 +2834,18 @@
       <c r="AJ23"/>
       <c r="AK23"/>
     </row>
-    <row r="24" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="10">
         <v>12</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10">
-        <f>IF(AF24="",ROUNDUP(SUMPRODUCT(G24:AE24, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F24" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G24" s="18"/>
@@ -2600,18 +2880,18 @@
       <c r="AJ24"/>
       <c r="AK24"/>
     </row>
-    <row r="25" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="10">
         <v>13</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10">
-        <f>IF(AF25="",ROUNDUP(SUMPRODUCT(G25:AE25, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F25" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G25" s="18"/>
@@ -2646,18 +2926,18 @@
       <c r="AJ25"/>
       <c r="AK25"/>
     </row>
-    <row r="26" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="10">
         <v>14</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10">
-        <f>IF(AF26="",ROUNDUP(SUMPRODUCT(G26:AE26, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F26" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G26" s="18"/>
@@ -2692,18 +2972,18 @@
       <c r="AJ26"/>
       <c r="AK26"/>
     </row>
-    <row r="27" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="10">
         <v>15</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10">
-        <f>IF(AF27="",ROUNDUP(SUMPRODUCT(G27:AE27, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F27" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G27" s="18"/>
@@ -2738,18 +3018,18 @@
       <c r="AJ27"/>
       <c r="AK27"/>
     </row>
-    <row r="28" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="10">
         <v>16</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10">
-        <f>IF(AF28="",ROUNDUP(SUMPRODUCT(G28:AE28, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F28" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G28" s="18"/>
@@ -2784,18 +3064,18 @@
       <c r="AJ28"/>
       <c r="AK28"/>
     </row>
-    <row r="29" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="10">
         <v>17</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10">
-        <f>IF(AF29="",ROUNDUP(SUMPRODUCT(G29:AE29, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F29" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G29" s="18"/>
@@ -2830,18 +3110,18 @@
       <c r="AJ29"/>
       <c r="AK29"/>
     </row>
-    <row r="30" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="10">
         <v>18</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10">
-        <f>IF(AF30="",ROUNDUP(SUMPRODUCT(G30:AE30, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F30" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G30" s="18"/>
@@ -2876,18 +3156,18 @@
       <c r="AJ30"/>
       <c r="AK30"/>
     </row>
-    <row r="31" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B31" s="10">
         <v>19</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10">
-        <f>IF(AF31="",ROUNDUP(SUMPRODUCT(G31:AE31, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F31" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G31" s="18"/>
@@ -2922,18 +3202,18 @@
       <c r="AJ31"/>
       <c r="AK31"/>
     </row>
-    <row r="32" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B32" s="10">
         <v>20</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10">
-        <f>IF(AF32="",ROUNDUP(SUMPRODUCT(G32:AE32, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F32" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G32" s="18"/>
@@ -2968,18 +3248,18 @@
       <c r="AJ32"/>
       <c r="AK32"/>
     </row>
-    <row r="33" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B33" s="10">
         <v>21</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10">
-        <f>IF(AF33="",ROUNDUP(SUMPRODUCT(G33:AE33, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F33" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G33" s="18"/>
@@ -3014,18 +3294,18 @@
       <c r="AJ33"/>
       <c r="AK33"/>
     </row>
-    <row r="34" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B34" s="10">
         <v>22</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10">
-        <f>IF(AF34="",ROUNDUP(SUMPRODUCT(G34:AE34, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F34" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G34" s="18"/>
@@ -3060,18 +3340,18 @@
       <c r="AJ34"/>
       <c r="AK34"/>
     </row>
-    <row r="35" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B35" s="10">
         <v>23</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10">
-        <f>IF(AF35="",ROUNDUP(SUMPRODUCT(G35:AE35, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F35" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G35" s="18"/>
@@ -3106,18 +3386,18 @@
       <c r="AJ35"/>
       <c r="AK35"/>
     </row>
-    <row r="36" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B36" s="10">
         <v>24</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10">
-        <f>IF(AF36="",ROUNDUP(SUMPRODUCT(G36:AE36, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F36" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G36" s="18"/>
@@ -3152,18 +3432,18 @@
       <c r="AJ36"/>
       <c r="AK36"/>
     </row>
-    <row r="37" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B37" s="10">
         <v>25</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10">
-        <f>IF(AF37="",ROUNDUP(SUMPRODUCT(G37:AE37, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F37" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G37" s="18"/>
@@ -3198,18 +3478,18 @@
       <c r="AJ37"/>
       <c r="AK37"/>
     </row>
-    <row r="38" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B38" s="10">
         <v>26</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10">
-        <f>IF(AF38="",ROUNDUP(SUMPRODUCT(G38:AE38, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F38" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G38" s="18"/>
@@ -3244,18 +3524,18 @@
       <c r="AJ38"/>
       <c r="AK38"/>
     </row>
-    <row r="39" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B39" s="10">
         <v>27</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10">
-        <f>IF(AF39="",ROUNDUP(SUMPRODUCT(G39:AE39, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F39" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G39" s="18"/>
@@ -3290,18 +3570,18 @@
       <c r="AJ39"/>
       <c r="AK39"/>
     </row>
-    <row r="40" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B40" s="10">
         <v>28</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
       <c r="E40" s="10">
-        <f>IF(AF40="",ROUNDUP(SUMPRODUCT(G40:AE40, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F40" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G40" s="18"/>
@@ -3336,18 +3616,18 @@
       <c r="AJ40"/>
       <c r="AK40"/>
     </row>
-    <row r="41" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B41" s="10">
         <v>29</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
       <c r="E41" s="10">
-        <f>IF(AF41="",ROUNDUP(SUMPRODUCT(G41:AE41, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F41" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G41" s="18"/>
@@ -3382,18 +3662,18 @@
       <c r="AJ41"/>
       <c r="AK41"/>
     </row>
-    <row r="42" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B42" s="10">
         <v>30</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10">
-        <f>IF(AF42="",ROUNDUP(SUMPRODUCT(G42:AE42, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F42" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G42" s="18"/>
@@ -3428,18 +3708,18 @@
       <c r="AJ42"/>
       <c r="AK42"/>
     </row>
-    <row r="43" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="10">
         <v>31</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10">
-        <f>IF(AF43="",ROUNDUP(SUMPRODUCT(G43:AE43, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F43" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G43" s="18"/>
@@ -3474,18 +3754,18 @@
       <c r="AJ43"/>
       <c r="AK43"/>
     </row>
-    <row r="44" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B44" s="10">
         <v>32</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10">
-        <f>IF(AF44="",ROUNDUP(SUMPRODUCT(G44:AE44, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" ref="E44:E75" si="2">IF(AF44="",ROUNDUP(SUMPRODUCT(G44:AE44, $G$11:$AE$11)/2,0),0)</f>
         <v>0</v>
       </c>
       <c r="F44" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G44" s="18"/>
@@ -3520,18 +3800,18 @@
       <c r="AJ44"/>
       <c r="AK44"/>
     </row>
-    <row r="45" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B45" s="10">
         <v>33</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10">
-        <f>IF(AF45="",ROUNDUP(SUMPRODUCT(G45:AE45, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F45" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G45" s="18"/>
@@ -3566,18 +3846,18 @@
       <c r="AJ45"/>
       <c r="AK45"/>
     </row>
-    <row r="46" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B46" s="10">
         <v>34</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10">
-        <f>IF(AF46="",ROUNDUP(SUMPRODUCT(G46:AE46, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F46" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G46" s="18"/>
@@ -3612,18 +3892,18 @@
       <c r="AJ46"/>
       <c r="AK46"/>
     </row>
-    <row r="47" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="10">
         <v>35</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10">
-        <f>IF(AF47="",ROUNDUP(SUMPRODUCT(G47:AE47, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F47" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G47" s="18"/>
@@ -3658,18 +3938,18 @@
       <c r="AJ47"/>
       <c r="AK47"/>
     </row>
-    <row r="48" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B48" s="10">
         <v>36</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10">
-        <f>IF(AF48="",ROUNDUP(SUMPRODUCT(G48:AE48, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F48" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G48" s="18"/>
@@ -3704,18 +3984,18 @@
       <c r="AJ48"/>
       <c r="AK48"/>
     </row>
-    <row r="49" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B49" s="10">
         <v>37</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
       <c r="E49" s="10">
-        <f>IF(AF49="",ROUNDUP(SUMPRODUCT(G49:AE49, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F49" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G49" s="18"/>
@@ -3750,18 +4030,18 @@
       <c r="AJ49"/>
       <c r="AK49"/>
     </row>
-    <row r="50" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B50" s="10">
         <v>38</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
       <c r="E50" s="10">
-        <f>IF(AF50="",ROUNDUP(SUMPRODUCT(G50:AE50, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F50" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G50" s="18"/>
@@ -3796,18 +4076,18 @@
       <c r="AJ50"/>
       <c r="AK50"/>
     </row>
-    <row r="51" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B51" s="10">
         <v>39</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
       <c r="E51" s="10">
-        <f>IF(AF51="",ROUNDUP(SUMPRODUCT(G51:AE51, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F51" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G51" s="18"/>
@@ -3842,18 +4122,18 @@
       <c r="AJ51"/>
       <c r="AK51"/>
     </row>
-    <row r="52" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B52" s="10">
         <v>40</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
       <c r="E52" s="10">
-        <f>IF(AF52="",ROUNDUP(SUMPRODUCT(G52:AE52, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F52" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G52" s="18"/>
@@ -3888,18 +4168,18 @@
       <c r="AJ52"/>
       <c r="AK52"/>
     </row>
-    <row r="53" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B53" s="10">
         <v>41</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
       <c r="E53" s="10">
-        <f>IF(AF53="",ROUNDUP(SUMPRODUCT(G53:AE53, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F53" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G53" s="18"/>
@@ -3934,18 +4214,18 @@
       <c r="AJ53"/>
       <c r="AK53"/>
     </row>
-    <row r="54" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B54" s="10">
         <v>42</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10">
-        <f>IF(AF54="",ROUNDUP(SUMPRODUCT(G54:AE54, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F54" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G54" s="18"/>
@@ -3980,18 +4260,18 @@
       <c r="AJ54"/>
       <c r="AK54"/>
     </row>
-    <row r="55" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B55" s="10">
         <v>43</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
       <c r="E55" s="10">
-        <f>IF(AF55="",ROUNDUP(SUMPRODUCT(G55:AE55, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F55" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G55" s="18"/>
@@ -4026,18 +4306,18 @@
       <c r="AJ55"/>
       <c r="AK55"/>
     </row>
-    <row r="56" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B56" s="10">
         <v>44</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
       <c r="E56" s="10">
-        <f>IF(AF56="",ROUNDUP(SUMPRODUCT(G56:AE56, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F56" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G56" s="18"/>
@@ -4072,18 +4352,18 @@
       <c r="AJ56"/>
       <c r="AK56"/>
     </row>
-    <row r="57" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B57" s="10">
         <v>45</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
       <c r="E57" s="10">
-        <f>IF(AF57="",ROUNDUP(SUMPRODUCT(G57:AE57, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F57" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G57" s="18"/>
@@ -4118,18 +4398,18 @@
       <c r="AJ57"/>
       <c r="AK57"/>
     </row>
-    <row r="58" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B58" s="10">
         <v>46</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
       <c r="E58" s="10">
-        <f>IF(AF58="",ROUNDUP(SUMPRODUCT(G58:AE58, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F58" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G58" s="18"/>
@@ -4164,18 +4444,18 @@
       <c r="AJ58"/>
       <c r="AK58"/>
     </row>
-    <row r="59" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B59" s="10">
         <v>47</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
       <c r="E59" s="10">
-        <f>IF(AF59="",ROUNDUP(SUMPRODUCT(G59:AE59, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F59" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G59" s="18"/>
@@ -4210,18 +4490,18 @@
       <c r="AJ59"/>
       <c r="AK59"/>
     </row>
-    <row r="60" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B60" s="10">
         <v>48</v>
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
       <c r="E60" s="10">
-        <f>IF(AF60="",ROUNDUP(SUMPRODUCT(G60:AE60, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F60" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G60" s="18"/>
@@ -4256,18 +4536,18 @@
       <c r="AJ60"/>
       <c r="AK60"/>
     </row>
-    <row r="61" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B61" s="10">
         <v>49</v>
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
       <c r="E61" s="10">
-        <f>IF(AF61="",ROUNDUP(SUMPRODUCT(G61:AE61, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F61" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G61" s="18"/>
@@ -4302,18 +4582,18 @@
       <c r="AJ61"/>
       <c r="AK61"/>
     </row>
-    <row r="62" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B62" s="10">
         <v>50</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10">
-        <f>IF(AF62="",ROUNDUP(SUMPRODUCT(G62:AE62, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F62" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G62" s="18"/>
@@ -4348,18 +4628,18 @@
       <c r="AJ62"/>
       <c r="AK62"/>
     </row>
-    <row r="63" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B63" s="10">
         <v>51</v>
       </c>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
       <c r="E63" s="10">
-        <f>IF(AF63="",ROUNDUP(SUMPRODUCT(G63:AE63, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F63" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G63" s="18"/>
@@ -4394,18 +4674,18 @@
       <c r="AJ63"/>
       <c r="AK63"/>
     </row>
-    <row r="64" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B64" s="10">
         <v>52</v>
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
       <c r="E64" s="10">
-        <f>IF(AF64="",ROUNDUP(SUMPRODUCT(G64:AE64, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F64" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G64" s="18"/>
@@ -4440,18 +4720,18 @@
       <c r="AJ64"/>
       <c r="AK64"/>
     </row>
-    <row r="65" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B65" s="10">
         <v>53</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
       <c r="E65" s="10">
-        <f>IF(AF65="",ROUNDUP(SUMPRODUCT(G65:AE65, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F65" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G65" s="18"/>
@@ -4486,18 +4766,18 @@
       <c r="AJ65"/>
       <c r="AK65"/>
     </row>
-    <row r="66" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B66" s="10">
         <v>54</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
       <c r="E66" s="10">
-        <f>IF(AF66="",ROUNDUP(SUMPRODUCT(G66:AE66, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F66" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G66" s="18"/>
@@ -4532,18 +4812,18 @@
       <c r="AJ66"/>
       <c r="AK66"/>
     </row>
-    <row r="67" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B67" s="10">
         <v>55</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
       <c r="E67" s="10">
-        <f>IF(AF67="",ROUNDUP(SUMPRODUCT(G67:AE67, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F67" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G67" s="18"/>
@@ -4578,18 +4858,18 @@
       <c r="AJ67"/>
       <c r="AK67"/>
     </row>
-    <row r="68" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B68" s="10">
         <v>56</v>
       </c>
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
       <c r="E68" s="10">
-        <f>IF(AF68="",ROUNDUP(SUMPRODUCT(G68:AE68, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F68" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G68" s="18"/>
@@ -4624,18 +4904,18 @@
       <c r="AJ68"/>
       <c r="AK68"/>
     </row>
-    <row r="69" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B69" s="10">
         <v>57</v>
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
       <c r="E69" s="10">
-        <f>IF(AF69="",ROUNDUP(SUMPRODUCT(G69:AE69, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F69" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G69" s="18"/>
@@ -4670,18 +4950,18 @@
       <c r="AJ69"/>
       <c r="AK69"/>
     </row>
-    <row r="70" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B70" s="10">
         <v>58</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10">
-        <f>IF(AF70="",ROUNDUP(SUMPRODUCT(G70:AE70, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F70" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G70" s="18"/>
@@ -4716,18 +4996,18 @@
       <c r="AJ70"/>
       <c r="AK70"/>
     </row>
-    <row r="71" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B71" s="10">
         <v>59</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
       <c r="E71" s="10">
-        <f>IF(AF71="",ROUNDUP(SUMPRODUCT(G71:AE71, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F71" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G71" s="18"/>
@@ -4762,18 +5042,18 @@
       <c r="AJ71"/>
       <c r="AK71"/>
     </row>
-    <row r="72" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B72" s="10">
         <v>60</v>
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
       <c r="E72" s="10">
-        <f>IF(AF72="",ROUNDUP(SUMPRODUCT(G72:AE72, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F72" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G72" s="18"/>
@@ -4808,18 +5088,18 @@
       <c r="AJ72"/>
       <c r="AK72"/>
     </row>
-    <row r="73" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B73" s="10">
         <v>61</v>
       </c>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
       <c r="E73" s="10">
-        <f>IF(AF73="",ROUNDUP(SUMPRODUCT(G73:AE73, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F73" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G73" s="18"/>
@@ -4854,18 +5134,18 @@
       <c r="AJ73"/>
       <c r="AK73"/>
     </row>
-    <row r="74" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B74" s="10">
         <v>62</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
       <c r="E74" s="10">
-        <f>IF(AF74="",ROUNDUP(SUMPRODUCT(G74:AE74, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F74" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G74" s="18"/>
@@ -4900,18 +5180,18 @@
       <c r="AJ74"/>
       <c r="AK74"/>
     </row>
-    <row r="75" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B75" s="10">
         <v>63</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
       <c r="E75" s="10">
-        <f>IF(AF75="",ROUNDUP(SUMPRODUCT(G75:AE75, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F75" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>E</v>
       </c>
       <c r="G75" s="18"/>
@@ -4946,18 +5226,18 @@
       <c r="AJ75"/>
       <c r="AK75"/>
     </row>
-    <row r="76" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B76" s="10">
         <v>64</v>
       </c>
       <c r="C76" s="10"/>
       <c r="D76" s="10"/>
       <c r="E76" s="10">
-        <f>IF(AF76="",ROUNDUP(SUMPRODUCT(G76:AE76, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" ref="E76:E82" si="3">IF(AF76="",ROUNDUP(SUMPRODUCT(G76:AE76, $G$11:$AE$11)/2,0),0)</f>
         <v>0</v>
       </c>
       <c r="F76" s="10" t="str">
-        <f t="shared" ref="F76:F82" si="1">IF(E76&gt;=90,"A",IF(E76&gt;=85,"A-",IF(E76&gt;=80,"B+",IF(E76&gt;=75,"B",IF(E76&gt;=70,"B-",IF(E76&gt;=65,"C",IF(E76&gt;=50,"D","E")))))))</f>
+        <f t="shared" ref="F76:F82" si="4">IF(E76&gt;=90,"A",IF(E76&gt;=85,"A-",IF(E76&gt;=80,"B+",IF(E76&gt;=75,"B",IF(E76&gt;=70,"B-",IF(E76&gt;=65,"C",IF(E76&gt;=50,"D","E")))))))</f>
         <v>E</v>
       </c>
       <c r="G76" s="18"/>
@@ -4992,18 +5272,18 @@
       <c r="AJ76"/>
       <c r="AK76"/>
     </row>
-    <row r="77" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B77" s="10">
         <v>65</v>
       </c>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
       <c r="E77" s="10">
-        <f>IF(AF77="",ROUNDUP(SUMPRODUCT(G77:AE77, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F77" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>E</v>
       </c>
       <c r="G77" s="18"/>
@@ -5038,18 +5318,18 @@
       <c r="AJ77"/>
       <c r="AK77"/>
     </row>
-    <row r="78" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B78" s="10">
         <v>66</v>
       </c>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
       <c r="E78" s="10">
-        <f>IF(AF78="",ROUNDUP(SUMPRODUCT(G78:AE78, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F78" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>E</v>
       </c>
       <c r="G78" s="18"/>
@@ -5084,18 +5364,18 @@
       <c r="AJ78"/>
       <c r="AK78"/>
     </row>
-    <row r="79" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B79" s="10">
         <v>67</v>
       </c>
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
       <c r="E79" s="10">
-        <f>IF(AF79="",ROUNDUP(SUMPRODUCT(G79:AE79, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F79" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>E</v>
       </c>
       <c r="G79" s="18"/>
@@ -5130,18 +5410,18 @@
       <c r="AJ79"/>
       <c r="AK79"/>
     </row>
-    <row r="80" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B80" s="10">
         <v>68</v>
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
       <c r="E80" s="10">
-        <f>IF(AF80="",ROUNDUP(SUMPRODUCT(G80:AE80, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F80" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>E</v>
       </c>
       <c r="G80" s="18"/>
@@ -5176,18 +5456,18 @@
       <c r="AJ80"/>
       <c r="AK80"/>
     </row>
-    <row r="81" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B81" s="10">
         <v>69</v>
       </c>
       <c r="C81" s="10"/>
       <c r="D81" s="10"/>
       <c r="E81" s="10">
-        <f>IF(AF81="",ROUNDUP(SUMPRODUCT(G81:AE81, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F81" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>E</v>
       </c>
       <c r="G81" s="18"/>
@@ -5222,18 +5502,18 @@
       <c r="AJ81"/>
       <c r="AK81"/>
     </row>
-    <row r="82" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B82" s="10">
         <v>70</v>
       </c>
       <c r="C82" s="10"/>
       <c r="D82" s="10"/>
       <c r="E82" s="10">
-        <f>IF(AF82="",ROUNDUP(SUMPRODUCT(G82:AE82, $G$11:$AE$11)/2,0),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F82" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>E</v>
       </c>
       <c r="G82" s="18"/>
@@ -5268,14 +5548,14 @@
       <c r="AJ82"/>
       <c r="AK82"/>
     </row>
-    <row r="83" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="AG83"/>
       <c r="AH83"/>
       <c r="AI83"/>
       <c r="AJ83"/>
       <c r="AK83"/>
     </row>
-    <row r="84" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B84" s="11" t="s">
         <v>11</v>
       </c>
@@ -5287,7 +5567,7 @@
       <c r="AJ84"/>
       <c r="AK84"/>
     </row>
-    <row r="85" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B85" s="6" t="s">
         <v>12</v>
       </c>
@@ -5299,7 +5579,7 @@
       <c r="AJ85"/>
       <c r="AK85"/>
     </row>
-    <row r="86" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B86" s="6" t="s">
         <v>13</v>
       </c>
@@ -5311,133 +5591,133 @@
       <c r="AJ86"/>
       <c r="AK86"/>
     </row>
-    <row r="87" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
     </row>
-    <row r="88" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="47" t="s">
+    <row r="88" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B88" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C88" s="47"/>
-      <c r="D88" s="47"/>
-    </row>
-    <row r="89" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="48" t="s">
+      <c r="C88" s="29"/>
+      <c r="D88" s="29"/>
+    </row>
+    <row r="89" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B89" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="49"/>
+      <c r="C89" s="31"/>
       <c r="D89" s="12">
         <f>SUM(E13:E82)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="48" t="s">
+    <row r="90" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B90" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="C90" s="49"/>
+      <c r="C90" s="31"/>
       <c r="D90" s="12">
         <f>MAX(E13:E82)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="48" t="s">
+    <row r="91" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B91" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C91" s="49"/>
+      <c r="C91" s="31"/>
       <c r="D91" s="12">
         <f>MIN(E13:E82)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B92" s="48" t="s">
+    <row r="92" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C92" s="49"/>
+      <c r="C92" s="31"/>
       <c r="D92" s="13">
         <f>D89/COUNT(E13:E82)</f>
         <v>1.4285714285714286</v>
       </c>
     </row>
-    <row r="93" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="48" t="s">
+    <row r="93" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B93" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="C93" s="49"/>
+      <c r="C93" s="31"/>
       <c r="D93" s="14">
         <f>COUNTIF(F13:F82,"A")</f>
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="48" t="s">
+    <row r="94" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B94" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="C94" s="49"/>
+      <c r="C94" s="31"/>
       <c r="D94" s="14">
         <f>COUNTIF(F13:F82,"A-")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B95" s="48" t="s">
+    <row r="95" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B95" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C95" s="49"/>
+      <c r="C95" s="31"/>
       <c r="D95" s="14">
         <f>COUNTIF(F13:F82,"B+")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B96" s="48" t="s">
+    <row r="96" spans="2:37" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B96" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C96" s="49"/>
+      <c r="C96" s="31"/>
       <c r="D96" s="14">
         <f>COUNTIF(F13:F82,"B")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B97" s="48" t="s">
+    <row r="97" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B97" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="C97" s="49"/>
+      <c r="C97" s="31"/>
       <c r="D97" s="14">
         <f>COUNTIF(F13:F82,"B-")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B98" s="48" t="s">
+    <row r="98" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B98" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C98" s="49"/>
+      <c r="C98" s="31"/>
       <c r="D98" s="14">
         <f>COUNTIF(F13:F82,"C")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="48" t="s">
+    <row r="99" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B99" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C99" s="49"/>
+      <c r="C99" s="31"/>
       <c r="D99" s="14">
         <f>COUNTIF(F13:F82,"D")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="48" t="s">
+    <row r="100" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B100" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="C100" s="49"/>
+      <c r="C100" s="31"/>
       <c r="D100" s="14">
         <f>COUNTIF(F13:F82,"E")</f>
         <v>69</v>
@@ -5445,19 +5725,6 @@
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B88:D88"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="B100:C100"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="B93:C93"/>
-    <mergeCell ref="B94:C94"/>
-    <mergeCell ref="B95:C95"/>
-    <mergeCell ref="B96:C96"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="B98:C98"/>
-    <mergeCell ref="B99:C99"/>
     <mergeCell ref="B3:AF3"/>
     <mergeCell ref="B2:AF2"/>
     <mergeCell ref="B5:C5"/>
@@ -5473,24 +5740,197 @@
     <mergeCell ref="U9:AA9"/>
     <mergeCell ref="AB9:AE9"/>
     <mergeCell ref="H9:O9"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="B100:C100"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="B93:C93"/>
+    <mergeCell ref="B94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="B98:C98"/>
+    <mergeCell ref="B99:C99"/>
   </mergeCells>
+  <conditionalFormatting sqref="B12:AF82">
+    <cfRule type="expression" dxfId="2" priority="14">
+      <formula>$AF12&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E12:E82">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>OR(E12 &gt; 100, E12 &lt; 0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:O82">
-    <cfRule type="expression" dxfId="1" priority="8">
+    <cfRule type="expression" dxfId="0" priority="8">
       <formula>#REF!&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B12:AF82">
-    <cfRule type="expression" dxfId="0" priority="14">
-      <formula>$AF12&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50BBC412-87A2-46B7-AFFB-DD876566A089}">
+  <dimension ref="C8:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C8" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C9" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" t="s">
+        <v>60</v>
+      </c>
+      <c r="H10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="C8:I8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB15ECA9-D844-4A90-BAC4-4CB4FAE533CB}">
+  <dimension ref="C8:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="5" max="5" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C8" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G9" t="s">
+        <v>67</v>
+      </c>
+      <c r="H9" t="s">
+        <v>68</v>
+      </c>
+      <c r="I9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:I8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3BE51A6-667A-4B63-9DD5-710DBC408537}">
+  <dimension ref="C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/TemplateCorrection_AX_Java_h1.xlsx
+++ b/TemplateCorrection_AX_Java_h1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Binus\AXForAutoPets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18DBA3EB-F0DA-4406-8AC4-A4A6A3CE6FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBCE504-5102-43E7-9DDD-634EBACBED19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{BDAB9093-038C-475C-B0C6-709F9936B761}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{BDAB9093-038C-475C-B0C6-709F9936B761}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="9" r:id="rId1"/>
@@ -1743,8 +1743,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0E905E-661D-4B8C-B6EC-B41ECC868B7A}">
   <dimension ref="A8:O39"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2970,7 +2970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50BBC412-87A2-46B7-AFFB-DD876566A089}">
   <dimension ref="B7:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J12" sqref="J12:J40"/>
     </sheetView>
   </sheetViews>
